--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_dc1_220.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_dc1_220.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N870"/>
+  <dimension ref="A1:N871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.083807945251465</v>
+        <v>1.791584014892578</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003154754638671875</v>
+        <v>0.006807804107666016</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.10819411277771</v>
+        <v>0.1660542488098145</v>
       </c>
     </row>
     <row r="8">
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="B864" t="n">
-        <v>0.01516075867560971</v>
+        <v>0.01515860195842691</v>
       </c>
     </row>
     <row r="865">
@@ -6554,116 +6554,126 @@
         </is>
       </c>
       <c r="B865" t="n">
-        <v>20396.27466363639</v>
+        <v>20609.67466363639</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B866" t="n">
-        <v>19</v>
+        <v>0.9988525573216018</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B867" t="n">
-        <v>736</v>
+        <v>19</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B868" t="n">
-        <v>4</v>
+        <v>833</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B869" t="n">
-        <v>1.243672132492065</v>
+        <v>4</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>2.022387981414795</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B870" t="inlineStr">
+      <c r="B871" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C870" t="inlineStr">
+      <c r="C871" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D870" t="inlineStr">
+      <c r="D871" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E870" t="inlineStr">
+      <c r="E871" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F870" t="inlineStr">
+      <c r="F871" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G870" t="inlineStr">
+      <c r="G871" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
+      <c r="H871" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I870" t="inlineStr">
+      <c r="I871" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J870" t="inlineStr">
+      <c r="J871" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K870" t="inlineStr">
+      <c r="K871" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L870" t="inlineStr">
+      <c r="L871" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M870" t="inlineStr">
+      <c r="M871" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N870" t="inlineStr">
+      <c r="N871" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_dc1_220.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_dc1_220.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.791584014892578</v>
+        <v>0.001458168029785156</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006807804107666016</v>
+        <v>0.0007832050323486328</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1660542488098145</v>
+        <v>0.1370458602905273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 3), (2, 2), (1, 3), (0, 0), (0, 1), (1, 0), (1, 1), (0, 2), (2, 0), (1, 2), (2, 1)]</t>
+          <t>[[2, 3], [2, 2], [1, 3], [0, 0], [0, 1], [1, 0], [1, 1], [0, 2], [2, 0], [1, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 2), (2, 1), (1, 3), (2, 3), (0, 2), (0, 3), (1, 2), (1, 1), (0, 1), (1, 0)]</t>
+          <t>[[3, 2], [2, 2], [2, 1], [1, 3], [2, 3], [0, 2], [0, 3], [1, 2], [1, 1], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[(1, 0), (3, 2), (2, 3), (1, 3), (2, 2), (0, 1), (1, 2), (2, 1), (1, 1), (0, 0), (0, 2)]</t>
+          <t>[[1, 0], [3, 2], [2, 3], [1, 3], [2, 2], [0, 1], [1, 2], [2, 1], [1, 1], [0, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5854,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 1), (3, 0), (1, 3), (0, 2), (0, 0), (0, 1), (2, 0), (1, 1), (1, 2), (1, 0)]</t>
+          <t>[[2, 2], [2, 1], [3, 0], [1, 3], [0, 2], [0, 0], [0, 1], [2, 0], [1, 1], [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="B870" t="n">
-        <v>2.022387981414795</v>
+        <v>0.1747758388519287</v>
       </c>
     </row>
     <row r="871">
